--- a/Trunk_tools/Table/Identity.xlsx
+++ b/Trunk_tools/Table/Identity.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,26 @@
   </si>
   <si>
     <t>这项决定了AI选择目标时判定的优先级，范围在0-1之间，越高优先级越高(目前是计算距离)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定了不同阵营的关系，不同Camp的角色会互相敌视(0为特殊可变阵营，掩体默认为-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,11 +179,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,165 +470,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="24.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.1</v>
       </c>
     </row>

--- a/Trunk_tools/Table/Identity.xlsx
+++ b/Trunk_tools/Table/Identity.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E91795-85FD-4020-A0BB-C8C5560D6C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1125" yWindow="2625" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,14 +130,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>决定了不同阵营的关系，不同Camp的角色会互相敌视(0为特殊可变阵营，掩体默认为-1)</t>
+    <t>决定了不同阵营的关系，不同Camp的角色会互相敌视(0为报错返回，不要占用，掩体默认为999)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>0.5</v>
@@ -640,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
         <v>0.1</v>
@@ -654,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
         <v>0.1</v>
@@ -668,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>-1</v>
+        <v>999</v>
       </c>
       <c r="E13" s="2">
         <v>0.1</v>
